--- a/IRCS2-devbuild/source/TEST_FILE.xlsx
+++ b/IRCS2-devbuild/source/TEST_FILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. IRCS Automation\Control 2 DEV\IRCS-v2\IRCS2-devbuild\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F820A2-97AE-453E-9E18-C121A815B090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C7EB58-C317-44AB-AAAD-25DD6E2A65BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Checking_UL" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="812">
   <si>
     <t>Items</t>
   </si>
@@ -2396,12 +2396,6 @@
   </si>
   <si>
     <t>SL_IDR</t>
-  </si>
-  <si>
-    <t>CTSL__</t>
-  </si>
-  <si>
-    <t>CTSL___IDR</t>
   </si>
   <si>
     <t>CESS__</t>
@@ -14330,13 +14324,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:V140"/>
+  <dimension ref="B1:V139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14447,7 +14441,7 @@
         <v>95679515934153</v>
       </c>
       <c r="K3" s="3">
-        <v>4308204442004.6499</v>
+        <v>4308204442004.6509</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -14459,7 +14453,7 @@
         <v>3772969980932.7969</v>
       </c>
       <c r="O3" s="3">
-        <v>117057845167.0332</v>
+        <v>117057845167.0327</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -14499,15 +14493,15 @@
       </c>
       <c r="I4" s="3">
         <f>SUM(I11:I897)</f>
-        <v>467403</v>
+        <v>467368</v>
       </c>
       <c r="J4" s="3">
         <f>SUM(J11:J897)</f>
-        <v>95687098061683</v>
+        <v>95679515934153</v>
       </c>
       <c r="K4" s="3">
         <f>SUM(K11:K897)</f>
-        <v>4308270741964.6509</v>
+        <v>4308204442004.6509</v>
       </c>
       <c r="L4" s="3">
         <f>SUM(L11:L897)</f>
@@ -14549,15 +14543,15 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>-7582127530</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>-66299960.000976563</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
@@ -14573,7 +14567,7 @@
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>7318610000.0001068</v>
+        <v>7318609999.9996033</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
@@ -14598,15 +14592,15 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" ref="I6:P6" si="1">SUM(I11:I897)</f>
-        <v>467403</v>
+        <v>467368</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>95687098061683</v>
+        <v>95679515934153</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>4308270741964.6509</v>
+        <v>4308204442004.6509</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="1"/>
@@ -22351,28 +22345,28 @@
         <v>788</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="E132" s="3">
-        <v>35</v>
+        <v>553</v>
       </c>
       <c r="F132" s="3">
-        <v>7582127530</v>
+        <v>7283100000</v>
       </c>
       <c r="G132" s="3">
-        <v>66299960</v>
+        <v>964336373</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="3">
-        <v>35</v>
+        <v>553</v>
       </c>
       <c r="J132" s="3">
-        <v>7582127530</v>
+        <v>7283100000</v>
       </c>
       <c r="K132" s="3">
-        <v>66299960</v>
+        <v>964336373</v>
       </c>
       <c r="L132" s="3">
         <v>0</v>
@@ -22408,7 +22402,7 @@
     </row>
     <row r="133" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>790</v>
@@ -22417,25 +22411,25 @@
         <v>791</v>
       </c>
       <c r="E133" s="3">
-        <v>553</v>
+        <v>5</v>
       </c>
       <c r="F133" s="3">
-        <v>7283100000</v>
+        <v>63500</v>
       </c>
       <c r="G133" s="3">
-        <v>964336373</v>
+        <v>13389.08</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
       </c>
       <c r="I133" s="3">
-        <v>553</v>
+        <v>5</v>
       </c>
       <c r="J133" s="3">
-        <v>7283100000</v>
+        <v>63500</v>
       </c>
       <c r="K133" s="3">
-        <v>964336373</v>
+        <v>13389.08</v>
       </c>
       <c r="L133" s="3">
         <v>0</v>
@@ -22466,39 +22460,39 @@
       </c>
       <c r="U133" s="5"/>
       <c r="V133" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E134" s="3">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="F134" s="3">
-        <v>63500</v>
+        <v>4108700000</v>
       </c>
       <c r="G134" s="3">
-        <v>13389.08</v>
+        <v>800711566</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="3">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="J134" s="3">
-        <v>63500</v>
+        <v>4108700000</v>
       </c>
       <c r="K134" s="3">
-        <v>13389.08</v>
+        <v>800711566</v>
       </c>
       <c r="L134" s="3">
         <v>0</v>
@@ -22529,12 +22523,12 @@
       </c>
       <c r="U134" s="5"/>
       <c r="V134" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>795</v>
@@ -22543,25 +22537,25 @@
         <v>796</v>
       </c>
       <c r="E135" s="3">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="F135" s="3">
-        <v>4108700000</v>
+        <v>46500</v>
       </c>
       <c r="G135" s="3">
-        <v>800711566</v>
+        <v>14295.99</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
       </c>
       <c r="I135" s="3">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="J135" s="3">
-        <v>4108700000</v>
+        <v>46500</v>
       </c>
       <c r="K135" s="3">
-        <v>800711566</v>
+        <v>14295.99</v>
       </c>
       <c r="L135" s="3">
         <v>0</v>
@@ -22592,39 +22586,39 @@
       </c>
       <c r="U135" s="5"/>
       <c r="V135" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E136" s="3">
-        <v>6</v>
+        <v>1390</v>
       </c>
       <c r="F136" s="3">
-        <v>46500</v>
+        <v>158857200000</v>
       </c>
       <c r="G136" s="3">
-        <v>14295.99</v>
+        <v>3772343654</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
       </c>
       <c r="I136" s="3">
-        <v>6</v>
+        <v>1390</v>
       </c>
       <c r="J136" s="3">
-        <v>46500</v>
+        <v>158857200000</v>
       </c>
       <c r="K136" s="3">
-        <v>14295.99</v>
+        <v>3772343654</v>
       </c>
       <c r="L136" s="3">
         <v>0</v>
@@ -22655,12 +22649,12 @@
       </c>
       <c r="U136" s="5"/>
       <c r="V136" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>800</v>
@@ -22669,25 +22663,25 @@
         <v>801</v>
       </c>
       <c r="E137" s="3">
-        <v>1390</v>
+        <v>53</v>
       </c>
       <c r="F137" s="3">
-        <v>158857200000</v>
+        <v>1559500</v>
       </c>
       <c r="G137" s="3">
-        <v>3772343654</v>
+        <v>102566.26</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
       </c>
       <c r="I137" s="3">
-        <v>1390</v>
+        <v>53</v>
       </c>
       <c r="J137" s="3">
-        <v>158857200000</v>
+        <v>1559500</v>
       </c>
       <c r="K137" s="3">
-        <v>3772343654</v>
+        <v>102566.26</v>
       </c>
       <c r="L137" s="3">
         <v>0</v>
@@ -22718,39 +22712,39 @@
       </c>
       <c r="U137" s="5"/>
       <c r="V137" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E138" s="3">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F138" s="3">
-        <v>1559500</v>
+        <v>15900000000</v>
       </c>
       <c r="G138" s="3">
-        <v>102566.26</v>
+        <v>202826400</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
       </c>
       <c r="I138" s="3">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="J138" s="3">
-        <v>1559500</v>
+        <v>15900000000</v>
       </c>
       <c r="K138" s="3">
-        <v>102566.26</v>
+        <v>202826400</v>
       </c>
       <c r="L138" s="3">
         <v>0</v>
@@ -22781,39 +22775,39 @@
       </c>
       <c r="U138" s="5"/>
       <c r="V138" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>806</v>
       </c>
       <c r="E139" s="3">
-        <v>125</v>
+        <v>1804</v>
       </c>
       <c r="F139" s="3">
-        <v>15900000000</v>
+        <v>32627447624</v>
       </c>
       <c r="G139" s="3">
-        <v>202826400</v>
+        <v>1892916430.04</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="3">
-        <v>125</v>
+        <v>1804</v>
       </c>
       <c r="J139" s="3">
-        <v>15900000000</v>
+        <v>32627447624</v>
       </c>
       <c r="K139" s="3">
-        <v>202826400</v>
+        <v>1892916430.04</v>
       </c>
       <c r="L139" s="3">
         <v>0</v>
@@ -22844,69 +22838,6 @@
       </c>
       <c r="U139" s="5"/>
       <c r="V139" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="140" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B140" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1804</v>
-      </c>
-      <c r="F140" s="3">
-        <v>32627447624</v>
-      </c>
-      <c r="G140" s="3">
-        <v>1892916430.04</v>
-      </c>
-      <c r="H140" s="3">
-        <v>0</v>
-      </c>
-      <c r="I140" s="3">
-        <v>1804</v>
-      </c>
-      <c r="J140" s="3">
-        <v>32627447624</v>
-      </c>
-      <c r="K140" s="3">
-        <v>1892916430.04</v>
-      </c>
-      <c r="L140" s="3">
-        <v>0</v>
-      </c>
-      <c r="M140" s="3">
-        <v>0</v>
-      </c>
-      <c r="N140" s="3">
-        <v>0</v>
-      </c>
-      <c r="O140" s="3">
-        <v>0</v>
-      </c>
-      <c r="P140" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q140" s="5">
-        <v>0</v>
-      </c>
-      <c r="R140" s="5">
-        <v>0</v>
-      </c>
-      <c r="S140" s="5">
-        <v>0</v>
-      </c>
-      <c r="T140" s="5">
-        <v>0</v>
-      </c>
-      <c r="U140" s="5"/>
-      <c r="V140" s="5" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22944,9 +22875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22956,7 +22885,7 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
@@ -23040,7 +22969,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C4" s="3">
         <v>692991</v>
@@ -23097,7 +23026,7 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C5" s="3">
         <v>9222</v>
@@ -23154,28 +23083,28 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C6" s="3">
-        <v>468360</v>
+        <v>468325</v>
       </c>
       <c r="D6" s="3">
-        <v>99312349965185.906</v>
+        <v>99304767837655.906</v>
       </c>
       <c r="E6" s="3">
-        <v>4417988817905.7832</v>
+        <v>4417922517945.7832</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>465212</v>
+        <v>465177</v>
       </c>
       <c r="H6" s="3">
-        <v>95686911958476</v>
+        <v>95679329830946</v>
       </c>
       <c r="I6" s="3">
-        <v>4308249582738.75</v>
+        <v>4308183282778.75</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
@@ -23211,7 +23140,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C7" s="3">
         <v>2191</v>

--- a/IRCS2-devbuild/source/TEST_FILE.xlsx
+++ b/IRCS2-devbuild/source/TEST_FILE.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="Summary_Checking_UL" sheetId="1" r:id="rId1"/>
     <sheet name="Summary_Checking_TRAD" sheetId="2" r:id="rId2"/>
-    <sheet name="CONTROL_2_SUMMARY" sheetId="3" r:id="rId3"/>
+    <sheet name="SUMMARY_CAMPAIGN" sheetId="3" r:id="rId3"/>
+    <sheet name="CONTROL_2_SUMMARY" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="824">
   <si>
     <t>Items</t>
   </si>
@@ -2437,6 +2438,42 @@
   </si>
   <si>
     <t>WPCI77_IDR</t>
+  </si>
+  <si>
+    <t>PRODUCT_CD</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>GROUPING RAW DATA</t>
+  </si>
+  <si>
+    <t>GROUPING DV</t>
+  </si>
+  <si>
+    <t>SUM_ASSURED</t>
+  </si>
+  <si>
+    <t>Bonus SA</t>
+  </si>
+  <si>
+    <t>SA After Bonus</t>
+  </si>
+  <si>
+    <t>BASE_ALGCP</t>
+  </si>
+  <si>
+    <t>BASE_ASLGM</t>
+  </si>
+  <si>
+    <t>BASE_AZLGC</t>
+  </si>
+  <si>
+    <t>BASE_GLGC</t>
+  </si>
+  <si>
+    <t>BASE_MLGC</t>
   </si>
   <si>
     <t>Grouping</t>
@@ -2488,7 +2525,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2519,8 +2556,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CA5D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2543,11 +2586,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2564,6 +2622,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -22818,6 +22883,254 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="8" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="F3" s="12">
+        <v>606025050001</v>
+      </c>
+      <c r="G3" s="12">
+        <v>45296350000.1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>651321400001.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="F4" s="12">
+        <v>6961200</v>
+      </c>
+      <c r="G4" s="12">
+        <v>518120</v>
+      </c>
+      <c r="H4" s="12">
+        <v>7479320</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2142565597986</v>
+      </c>
+      <c r="G5" s="12">
+        <v>180359170910</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2322924768896</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="F6" s="12">
+        <v>22625163175641</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2107511791494.3</v>
+      </c>
+      <c r="H6" s="12">
+        <v>24732674967135.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="F7" s="12">
+        <v>58526999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4381799.9</v>
+      </c>
+      <c r="H7" s="12">
+        <v>62908798.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="F8" s="12">
+        <v>531608539955</v>
+      </c>
+      <c r="G8" s="12">
+        <v>49676553995.5</v>
+      </c>
+      <c r="H8" s="12">
+        <v>581285093950.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1449030</v>
+      </c>
+      <c r="G9" s="12">
+        <v>144903</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1593933</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2059121849990</v>
+      </c>
+      <c r="G10" s="12">
+        <v>173837865000</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2232959714990</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="F11" s="12">
+        <v>7621000</v>
+      </c>
+      <c r="G11" s="12">
+        <v>597100</v>
+      </c>
+      <c r="H11" s="12">
+        <v>8218100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22829,8 +23142,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="10" t="s">
-        <v>807</v>
+      <c r="B2" s="13" t="s">
+        <v>819</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -22856,12 +23169,12 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="10"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -22910,11 +23223,11 @@
       <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="10"/>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="4" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="C4" s="4">
         <v>692991</v>
@@ -22971,7 +23284,7 @@
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="4" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="C5" s="4">
         <v>9222</v>
@@ -23028,7 +23341,7 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="4" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="C6" s="4">
         <v>468325</v>
@@ -23085,7 +23398,7 @@
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="4" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="C7" s="4">
         <v>2191</v>
